--- a/pred_ohlcv/54_21/2020-01-25 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 WTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-5414.236500000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-5414.236500000001</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-5413.036500000001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-6438.036500000001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-6352.613900000001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-6622.613900000001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-4089.125300000001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-7425.699100000002</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-8829.526200000002</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-11313.7727</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-19438.27529999999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-37317.56799999997</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-37287.33299999997</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-37287.33299999997</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-37710.38639999997</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-39362.98319999997</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-38060.96249999997</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-38143.66239999997</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-36471.95709999997</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-25 WTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 WTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-5414.236500000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-5414.236500000001</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-5413.036500000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-6438.036500000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-6352.613900000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-6622.613900000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-4089.125300000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-8829.526200000002</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-8829.526200000002</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-8829.526200000002</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-8829.526200000002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-11313.7727</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-19438.27529999999</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-37317.56799999997</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-37287.33299999997</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-37289.33299999997</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-37287.33299999997</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-34388.55829999997</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-38060.96249999997</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-38143.66239999997</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-36471.95709999997</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
